--- a/individual_results/avey/206.xlsx
+++ b/individual_results/avey/206.xlsx
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N2" t="n">
         <v>0.6666666666666666</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -721,7 +721,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N4" t="n">
         <v>0.8</v>
@@ -782,7 +782,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="N5" t="n">
         <v>0.9090909090909091</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8262346571285599</v>
+        <v>0.9639404333166532</v>
       </c>
       <c r="N6" t="n">
         <v>0.7967075809905066</v>
